--- a/output/金門縣/2014_縣市區域議員_各投開票所得票數_金門縣.xlsx
+++ b/output/金門縣/2014_縣市區域議員_各投開票所得票數_金門縣.xlsx
@@ -10,7 +10,6 @@
     <sheet name="第01選舉區" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="第02選舉區" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="第03選舉區" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="第04選舉區" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +447,17 @@
       <c r="Q1" t="inlineStr"/>
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,48 +487,59 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
         <is>
           <t>有效票數A
 A=1+2+...+N</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>無效票數B</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>投票數C
 C=A+B</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>已領未投票數
 D
 D=E-C</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>發出票數E
 E=C+D</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>用餘票數F</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>選舉人數G
 G=E+F</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>投票率H
 H=C÷G</t>
@@ -532,67 +553,144 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>(1)
-朱秀平
+許玉昭
 中國國民黨</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>(2)
-林貽祥
+許建中
 中國國民黨</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>(3)
-曹以標
+陳滄江
+民主進步黨</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(4)
+楊萬山
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(5)
+林孫全
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(6)
+李誠智
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>(7)
+李錫添
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>(8)
+許華玉
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>(9)
+黃啓璋
 無黨籍及未經政黨推薦</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(4)
-林惠萍
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>(10)
+楊永立
 中國國民黨</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(5)
-林明揚
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>(11)
+陳衍利
 中國國民黨</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>(6)
-陳書建
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>(12)
+歐陽儀雄
 中國國民黨</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>(7)
-曹丞君
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>(13)
+翁銘駿
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>(14)
+許志猛
 無黨籍及未經政黨推薦</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>(8)
-曹爾章
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>(15)
+廖進入
 中國國民黨</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>(16)
+王碧珍
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>(17)
+洪允典
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>(18)
+石永城
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>(19)
+唐麗輝
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -614,6 +712,17 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -635,16 +744,27 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>南竿鄉</t>
+          <t>金城鎮</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>介壽村</t>
+          <t>東門里</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -653,59 +773,92 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E6" t="n">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="G6" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="I6" t="n">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="K6" t="n">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="L6" t="n">
-        <v>1185</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="N6" t="n">
-        <v>1202</v>
+        <v>20</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P6" t="n">
-        <v>1202</v>
+        <v>15</v>
       </c>
       <c r="Q6" t="n">
-        <v>633</v>
+        <v>98</v>
       </c>
       <c r="R6" t="n">
-        <v>1835</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>65.5</v>
+        <v>52</v>
+      </c>
+      <c r="T6" t="n">
+        <v>47</v>
+      </c>
+      <c r="U6" t="n">
+        <v>88</v>
+      </c>
+      <c r="V6" t="n">
+        <v>71</v>
+      </c>
+      <c r="W6" t="n">
+        <v>980</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1002</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1002</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1094</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2096</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>47.81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>復興村、福沃村</t>
+          <t>東門里</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -714,113 +867,2725 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="F7" t="n">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H7" t="n">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="I7" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J7" t="n">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="K7" t="n">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="L7" t="n">
-        <v>1206</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
         <v>20</v>
       </c>
-      <c r="N7" t="n">
-        <v>1226</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1226</v>
-      </c>
       <c r="Q7" t="n">
-        <v>673</v>
+        <v>66</v>
       </c>
       <c r="R7" t="n">
-        <v>1899</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
-        <v>64.56</v>
+        <v>97</v>
+      </c>
+      <c r="T7" t="n">
+        <v>65</v>
+      </c>
+      <c r="U7" t="n">
+        <v>94</v>
+      </c>
+      <c r="V7" t="n">
+        <v>106</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1135</v>
+      </c>
+      <c r="X7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1165</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1165</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1245</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2410</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>48.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>清水村、仁愛村、津沙村、馬祖村、珠螺村、四維村</t>
+          <t>西門里</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>73</v>
+      </c>
+      <c r="E8" t="n">
+        <v>49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>56</v>
+      </c>
+      <c r="G8" t="n">
+        <v>42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" t="n">
+        <v>46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>105</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>57</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>74</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>48</v>
+      </c>
+      <c r="T8" t="n">
+        <v>83</v>
+      </c>
+      <c r="U8" t="n">
+        <v>94</v>
+      </c>
+      <c r="V8" t="n">
+        <v>118</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1018</v>
+      </c>
+      <c r="X8" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1049</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1184</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2233</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>西門里</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>61</v>
+      </c>
+      <c r="G9" t="n">
+        <v>61</v>
+      </c>
+      <c r="H9" t="n">
+        <v>58</v>
+      </c>
+      <c r="I9" t="n">
+        <v>76</v>
+      </c>
+      <c r="J9" t="n">
+        <v>40</v>
+      </c>
+      <c r="K9" t="n">
+        <v>90</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>56</v>
+      </c>
+      <c r="N9" t="n">
+        <v>23</v>
+      </c>
+      <c r="O9" t="n">
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>64</v>
+      </c>
+      <c r="T9" t="n">
+        <v>98</v>
+      </c>
+      <c r="U9" t="n">
+        <v>70</v>
+      </c>
+      <c r="V9" t="n">
+        <v>110</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1016</v>
+      </c>
+      <c r="X9" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1047</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1047</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1329</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2376</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>44.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>西門里</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>53</v>
+      </c>
+      <c r="E10" t="n">
+        <v>56</v>
+      </c>
+      <c r="F10" t="n">
+        <v>58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>61</v>
+      </c>
+      <c r="H10" t="n">
+        <v>59</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
+      <c r="J10" t="n">
+        <v>23</v>
+      </c>
+      <c r="K10" t="n">
+        <v>93</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>63</v>
+      </c>
+      <c r="N10" t="n">
+        <v>23</v>
+      </c>
+      <c r="O10" t="n">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>14</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>74</v>
+      </c>
+      <c r="U10" t="n">
+        <v>96</v>
+      </c>
+      <c r="V10" t="n">
+        <v>80</v>
+      </c>
+      <c r="W10" t="n">
+        <v>937</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>956</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>956</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1074</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2030</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>47.09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>西門里</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>77</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>57</v>
+      </c>
+      <c r="G11" t="n">
+        <v>78</v>
+      </c>
+      <c r="H11" t="n">
+        <v>62</v>
+      </c>
+      <c r="I11" t="n">
+        <v>64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K11" t="n">
+        <v>92</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>35</v>
+      </c>
+      <c r="N11" t="n">
+        <v>19</v>
+      </c>
+      <c r="O11" t="n">
+        <v>67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>38</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>67</v>
+      </c>
+      <c r="T11" t="n">
+        <v>70</v>
+      </c>
+      <c r="U11" t="n">
+        <v>83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>70</v>
+      </c>
+      <c r="W11" t="n">
+        <v>999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1022</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1022</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2092</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>48.85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>南門里</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>203</v>
-      </c>
-      <c r="E8" t="n">
-        <v>198</v>
-      </c>
-      <c r="F8" t="n">
-        <v>196</v>
-      </c>
-      <c r="G8" t="n">
-        <v>206</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="D12" t="n">
+        <v>52</v>
+      </c>
+      <c r="E12" t="n">
+        <v>59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" t="n">
+        <v>33</v>
+      </c>
+      <c r="I12" t="n">
+        <v>74</v>
+      </c>
+      <c r="J12" t="n">
+        <v>20</v>
+      </c>
+      <c r="K12" t="n">
+        <v>69</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>23</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>51</v>
+      </c>
+      <c r="P12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>13</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>46</v>
+      </c>
+      <c r="T12" t="n">
+        <v>34</v>
+      </c>
+      <c r="U12" t="n">
+        <v>60</v>
+      </c>
+      <c r="V12" t="n">
+        <v>90</v>
+      </c>
+      <c r="W12" t="n">
+        <v>702</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>719</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>719</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>863</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1582</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>南門里</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>45</v>
+      </c>
+      <c r="E13" t="n">
+        <v>44</v>
+      </c>
+      <c r="F13" t="n">
+        <v>39</v>
+      </c>
+      <c r="G13" t="n">
+        <v>34</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>17</v>
+      </c>
+      <c r="K13" t="n">
+        <v>63</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>30</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>41</v>
+      </c>
+      <c r="T13" t="n">
+        <v>42</v>
+      </c>
+      <c r="U13" t="n">
+        <v>90</v>
+      </c>
+      <c r="V13" t="n">
+        <v>66</v>
+      </c>
+      <c r="W13" t="n">
+        <v>669</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>681</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>681</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>890</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1571</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>43.35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>南門里</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>44</v>
+      </c>
+      <c r="E14" t="n">
+        <v>46</v>
+      </c>
+      <c r="F14" t="n">
+        <v>39</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24</v>
+      </c>
+      <c r="H14" t="n">
+        <v>56</v>
+      </c>
+      <c r="I14" t="n">
+        <v>48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="n">
+        <v>110</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>35</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>110</v>
+      </c>
+      <c r="P14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>38</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>31</v>
+      </c>
+      <c r="T14" t="n">
+        <v>72</v>
+      </c>
+      <c r="U14" t="n">
+        <v>61</v>
+      </c>
+      <c r="V14" t="n">
+        <v>92</v>
+      </c>
+      <c r="W14" t="n">
+        <v>854</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>866</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>866</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>798</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1664</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>52.04</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>北門里</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36</v>
+      </c>
+      <c r="F15" t="n">
+        <v>45</v>
+      </c>
+      <c r="G15" t="n">
+        <v>51</v>
+      </c>
+      <c r="H15" t="n">
+        <v>57</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36</v>
+      </c>
+      <c r="J15" t="n">
+        <v>45</v>
+      </c>
+      <c r="K15" t="n">
+        <v>65</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>77</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>17</v>
+      </c>
+      <c r="S15" t="n">
+        <v>53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>76</v>
+      </c>
+      <c r="U15" t="n">
+        <v>85</v>
+      </c>
+      <c r="V15" t="n">
+        <v>53</v>
+      </c>
+      <c r="W15" t="n">
+        <v>834</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>849</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>849</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1016</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1865</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>45.52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>北門里</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>36</v>
+      </c>
+      <c r="E16" t="n">
+        <v>49</v>
+      </c>
+      <c r="F16" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" t="n">
+        <v>49</v>
+      </c>
+      <c r="H16" t="n">
+        <v>35</v>
+      </c>
+      <c r="I16" t="n">
+        <v>34</v>
+      </c>
+      <c r="J16" t="n">
+        <v>43</v>
+      </c>
+      <c r="K16" t="n">
+        <v>62</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>32</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>45</v>
+      </c>
+      <c r="T16" t="n">
+        <v>41</v>
+      </c>
+      <c r="U16" t="n">
+        <v>88</v>
+      </c>
+      <c r="V16" t="n">
+        <v>60</v>
+      </c>
+      <c r="W16" t="n">
+        <v>746</v>
+      </c>
+      <c r="X16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>762</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>762</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1133</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1895</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>40.21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>古城里</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>40</v>
+      </c>
+      <c r="E17" t="n">
+        <v>42</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>80</v>
+      </c>
+      <c r="I17" t="n">
+        <v>53</v>
+      </c>
+      <c r="J17" t="n">
+        <v>18</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>9</v>
+      </c>
+      <c r="N17" t="n">
+        <v>14</v>
+      </c>
+      <c r="O17" t="n">
+        <v>19</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>13</v>
+      </c>
+      <c r="T17" t="n">
+        <v>23</v>
+      </c>
+      <c r="U17" t="n">
+        <v>130</v>
+      </c>
+      <c r="V17" t="n">
+        <v>24</v>
+      </c>
+      <c r="W17" t="n">
+        <v>539</v>
+      </c>
+      <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>551</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>551</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>645</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1196</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>46.07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>古城里</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>29</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>159</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>27</v>
+      </c>
+      <c r="K18" t="n">
+        <v>78</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>20</v>
+      </c>
+      <c r="R18" t="n">
+        <v>20</v>
+      </c>
+      <c r="S18" t="n">
+        <v>39</v>
+      </c>
+      <c r="T18" t="n">
+        <v>41</v>
+      </c>
+      <c r="U18" t="n">
+        <v>275</v>
+      </c>
+      <c r="V18" t="n">
+        <v>42</v>
+      </c>
+      <c r="W18" t="n">
+        <v>889</v>
+      </c>
+      <c r="X18" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>907</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>907</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1031</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>金水里</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>77</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27</v>
+      </c>
+      <c r="G19" t="n">
+        <v>26</v>
+      </c>
+      <c r="H19" t="n">
+        <v>87</v>
+      </c>
+      <c r="I19" t="n">
+        <v>24</v>
+      </c>
+      <c r="J19" t="n">
+        <v>39</v>
+      </c>
+      <c r="K19" t="n">
+        <v>238</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>41</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>51</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>16</v>
+      </c>
+      <c r="T19" t="n">
+        <v>28</v>
+      </c>
+      <c r="U19" t="n">
+        <v>32</v>
+      </c>
+      <c r="V19" t="n">
+        <v>46</v>
+      </c>
+      <c r="W19" t="n">
+        <v>816</v>
+      </c>
+      <c r="X19" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>844</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>844</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>899</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1743</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>48.42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>珠沙里</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>62</v>
+      </c>
+      <c r="E20" t="n">
+        <v>38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>54</v>
+      </c>
+      <c r="G20" t="n">
+        <v>65</v>
+      </c>
+      <c r="H20" t="n">
+        <v>126</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>29</v>
+      </c>
+      <c r="K20" t="n">
+        <v>55</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>21</v>
+      </c>
+      <c r="N20" t="n">
+        <v>14</v>
+      </c>
+      <c r="O20" t="n">
+        <v>294</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>23</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>21</v>
+      </c>
+      <c r="T20" t="n">
+        <v>55</v>
+      </c>
+      <c r="U20" t="n">
+        <v>59</v>
+      </c>
+      <c r="V20" t="n">
+        <v>28</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1004</v>
+      </c>
+      <c r="X20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1024</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1024</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1449</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2473</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>賢庵里</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>71</v>
+      </c>
+      <c r="E21" t="n">
+        <v>21</v>
+      </c>
+      <c r="F21" t="n">
+        <v>54</v>
+      </c>
+      <c r="G21" t="n">
+        <v>49</v>
+      </c>
+      <c r="H21" t="n">
+        <v>63</v>
+      </c>
+      <c r="I21" t="n">
+        <v>80</v>
+      </c>
+      <c r="J21" t="n">
+        <v>23</v>
+      </c>
+      <c r="K21" t="n">
+        <v>168</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>42</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17</v>
+      </c>
+      <c r="O21" t="n">
+        <v>29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>29</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>34</v>
+      </c>
+      <c r="U21" t="n">
+        <v>103</v>
+      </c>
+      <c r="V21" t="n">
+        <v>79</v>
+      </c>
+      <c r="W21" t="n">
+        <v>927</v>
+      </c>
+      <c r="X21" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>949</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>949</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1208</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2157</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>賢庵里</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>40</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23</v>
+      </c>
+      <c r="F22" t="n">
+        <v>58</v>
+      </c>
+      <c r="G22" t="n">
+        <v>61</v>
+      </c>
+      <c r="H22" t="n">
+        <v>124</v>
+      </c>
+      <c r="I22" t="n">
+        <v>48</v>
+      </c>
+      <c r="J22" t="n">
+        <v>21</v>
+      </c>
+      <c r="K22" t="n">
+        <v>98</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14</v>
+      </c>
+      <c r="O22" t="n">
+        <v>17</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>17</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>40</v>
+      </c>
+      <c r="T22" t="n">
+        <v>21</v>
+      </c>
+      <c r="U22" t="n">
+        <v>45</v>
+      </c>
+      <c r="V22" t="n">
+        <v>39</v>
+      </c>
+      <c r="W22" t="n">
+        <v>701</v>
+      </c>
+      <c r="X22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>731</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>731</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>947</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1678</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>43.56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>金寧鄉</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>古寧村</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>41</v>
+      </c>
+      <c r="E23" t="n">
+        <v>38</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22</v>
+      </c>
+      <c r="G23" t="n">
+        <v>33</v>
+      </c>
+      <c r="H23" t="n">
+        <v>41</v>
+      </c>
+      <c r="I23" t="n">
+        <v>102</v>
+      </c>
+      <c r="J23" t="n">
+        <v>119</v>
+      </c>
+      <c r="K23" t="n">
+        <v>37</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>39</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>15</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>30</v>
+      </c>
+      <c r="T23" t="n">
+        <v>14</v>
+      </c>
+      <c r="U23" t="n">
+        <v>36</v>
+      </c>
+      <c r="V23" t="n">
+        <v>21</v>
+      </c>
+      <c r="W23" t="n">
+        <v>642</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>657</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>657</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>842</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1499</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>43.83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>古寧村</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>21</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>23</v>
+      </c>
+      <c r="I24" t="n">
+        <v>122</v>
+      </c>
+      <c r="J24" t="n">
+        <v>184</v>
+      </c>
+      <c r="K24" t="n">
+        <v>39</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>17</v>
+      </c>
+      <c r="V24" t="n">
+        <v>10</v>
+      </c>
+      <c r="W24" t="n">
+        <v>551</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>558</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>558</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>773</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1331</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>安美村</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>78</v>
+      </c>
+      <c r="F25" t="n">
+        <v>39</v>
+      </c>
+      <c r="G25" t="n">
+        <v>141</v>
+      </c>
+      <c r="H25" t="n">
+        <v>44</v>
+      </c>
+      <c r="I25" t="n">
+        <v>38</v>
+      </c>
+      <c r="J25" t="n">
+        <v>45</v>
+      </c>
+      <c r="K25" t="n">
+        <v>54</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>75</v>
+      </c>
+      <c r="P25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>33</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>37</v>
+      </c>
+      <c r="T25" t="n">
+        <v>62</v>
+      </c>
+      <c r="U25" t="n">
+        <v>70</v>
+      </c>
+      <c r="V25" t="n">
+        <v>18</v>
+      </c>
+      <c r="W25" t="n">
+        <v>923</v>
+      </c>
+      <c r="X25" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1129</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2089</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>安美村</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>41</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>35</v>
+      </c>
+      <c r="G26" t="n">
+        <v>130</v>
+      </c>
+      <c r="H26" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" t="n">
+        <v>98</v>
+      </c>
+      <c r="J26" t="n">
+        <v>35</v>
+      </c>
+      <c r="K26" t="n">
+        <v>36</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>51</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>18</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>60</v>
+      </c>
+      <c r="T26" t="n">
+        <v>28</v>
+      </c>
+      <c r="U26" t="n">
+        <v>29</v>
+      </c>
+      <c r="V26" t="n">
+        <v>33</v>
+      </c>
+      <c r="W26" t="n">
+        <v>704</v>
+      </c>
+      <c r="X26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>721</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>721</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>729</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1450</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>49.72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>后盤村</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>53</v>
+      </c>
+      <c r="E27" t="n">
+        <v>37</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17</v>
+      </c>
+      <c r="G27" t="n">
+        <v>32</v>
+      </c>
+      <c r="H27" t="n">
+        <v>39</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>25</v>
+      </c>
+      <c r="K27" t="n">
+        <v>55</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>50</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>14</v>
+      </c>
+      <c r="P27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>17</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>59</v>
+      </c>
+      <c r="T27" t="n">
+        <v>18</v>
+      </c>
+      <c r="U27" t="n">
+        <v>41</v>
+      </c>
+      <c r="V27" t="n">
+        <v>26</v>
+      </c>
+      <c r="W27" t="n">
+        <v>538</v>
+      </c>
+      <c r="X27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>558</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>558</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>727</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1285</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>43.42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>湖埔村</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>43</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>24</v>
+      </c>
+      <c r="G28" t="n">
+        <v>150</v>
+      </c>
+      <c r="H28" t="n">
+        <v>27</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>12</v>
+      </c>
+      <c r="K28" t="n">
+        <v>27</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>367</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>17</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>20</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>49</v>
+      </c>
+      <c r="T28" t="n">
+        <v>18</v>
+      </c>
+      <c r="U28" t="n">
+        <v>50</v>
+      </c>
+      <c r="V28" t="n">
+        <v>30</v>
+      </c>
+      <c r="W28" t="n">
+        <v>879</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>886</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>886</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>940</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1826</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>48.52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>湖埔村</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>84</v>
+      </c>
+      <c r="E29" t="n">
+        <v>57</v>
+      </c>
+      <c r="F29" t="n">
+        <v>87</v>
+      </c>
+      <c r="G29" t="n">
+        <v>162</v>
+      </c>
+      <c r="H29" t="n">
+        <v>45</v>
+      </c>
+      <c r="I29" t="n">
+        <v>80</v>
+      </c>
+      <c r="J29" t="n">
+        <v>48</v>
+      </c>
+      <c r="K29" t="n">
+        <v>127</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>98</v>
+      </c>
+      <c r="N29" t="n">
+        <v>28</v>
+      </c>
+      <c r="O29" t="n">
+        <v>64</v>
+      </c>
+      <c r="P29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>44</v>
+      </c>
+      <c r="R29" t="n">
+        <v>25</v>
+      </c>
+      <c r="S29" t="n">
+        <v>82</v>
+      </c>
+      <c r="T29" t="n">
+        <v>55</v>
+      </c>
+      <c r="U29" t="n">
+        <v>109</v>
+      </c>
+      <c r="V29" t="n">
+        <v>86</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1299</v>
+      </c>
+      <c r="X29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1321</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1321</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1428</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2749</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>48.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>榜林村</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>214</v>
+      </c>
+      <c r="E30" t="n">
+        <v>62</v>
+      </c>
+      <c r="F30" t="n">
+        <v>114</v>
+      </c>
+      <c r="G30" t="n">
+        <v>103</v>
+      </c>
+      <c r="H30" t="n">
+        <v>50</v>
+      </c>
+      <c r="I30" t="n">
+        <v>56</v>
+      </c>
+      <c r="J30" t="n">
+        <v>43</v>
+      </c>
+      <c r="K30" t="n">
+        <v>104</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>95</v>
+      </c>
+      <c r="N30" t="n">
+        <v>27</v>
+      </c>
+      <c r="O30" t="n">
+        <v>49</v>
+      </c>
+      <c r="P30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>35</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>42</v>
+      </c>
+      <c r="T30" t="n">
+        <v>36</v>
+      </c>
+      <c r="U30" t="n">
+        <v>73</v>
+      </c>
+      <c r="V30" t="n">
+        <v>72</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1203</v>
+      </c>
+      <c r="X30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1222</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1222</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1435</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2657</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>45.99</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>榜林村</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>36</v>
+      </c>
+      <c r="E31" t="n">
+        <v>187</v>
+      </c>
+      <c r="F31" t="n">
+        <v>33</v>
+      </c>
+      <c r="G31" t="n">
+        <v>45</v>
+      </c>
+      <c r="H31" t="n">
+        <v>34</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>32</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>50</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>11</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>50</v>
+      </c>
+      <c r="T31" t="n">
+        <v>28</v>
+      </c>
+      <c r="U31" t="n">
+        <v>36</v>
+      </c>
+      <c r="V31" t="n">
+        <v>10</v>
+      </c>
+      <c r="W31" t="n">
+        <v>611</v>
+      </c>
+      <c r="X31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>624</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>624</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>949</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1573</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>盤山村</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>71</v>
+      </c>
+      <c r="E32" t="n">
+        <v>45</v>
+      </c>
+      <c r="F32" t="n">
+        <v>70</v>
+      </c>
+      <c r="G32" t="n">
+        <v>71</v>
+      </c>
+      <c r="H32" t="n">
+        <v>36</v>
+      </c>
+      <c r="I32" t="n">
+        <v>110</v>
+      </c>
+      <c r="J32" t="n">
+        <v>76</v>
+      </c>
+      <c r="K32" t="n">
+        <v>48</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>29</v>
+      </c>
+      <c r="N32" t="n">
+        <v>19</v>
+      </c>
+      <c r="O32" t="n">
+        <v>23</v>
+      </c>
+      <c r="P32" t="n">
+        <v>143</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>30</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>102</v>
+      </c>
+      <c r="T32" t="n">
+        <v>66</v>
+      </c>
+      <c r="U32" t="n">
+        <v>63</v>
+      </c>
+      <c r="V32" t="n">
+        <v>29</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1036</v>
+      </c>
+      <c r="X32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1065</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1065</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1321</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2386</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>44.64</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>盤山村</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>67</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28</v>
+      </c>
+      <c r="F33" t="n">
+        <v>247</v>
+      </c>
+      <c r="G33" t="n">
+        <v>72</v>
+      </c>
+      <c r="H33" t="n">
+        <v>55</v>
+      </c>
+      <c r="I33" t="n">
+        <v>50</v>
+      </c>
+      <c r="J33" t="n">
+        <v>124</v>
+      </c>
+      <c r="K33" t="n">
+        <v>66</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>63</v>
+      </c>
+      <c r="N33" t="n">
+        <v>48</v>
+      </c>
+      <c r="O33" t="n">
+        <v>36</v>
+      </c>
+      <c r="P33" t="n">
+        <v>172</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>47</v>
+      </c>
+      <c r="R33" t="n">
+        <v>19</v>
+      </c>
+      <c r="S33" t="n">
+        <v>39</v>
+      </c>
+      <c r="T33" t="n">
+        <v>23</v>
+      </c>
+      <c r="U33" t="n">
+        <v>76</v>
+      </c>
+      <c r="V33" t="n">
+        <v>19</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1254</v>
+      </c>
+      <c r="X33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1281</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1281</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1566</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2847</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>44.99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>烏坵鄉</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>大坵村</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>43</v>
+      </c>
+      <c r="E34" t="n">
+        <v>55</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>146</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>152</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>152</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>82</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>234</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>64.95999999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>小坵村</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>31</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>17</v>
+      </c>
+      <c r="V35" t="n">
+        <v>50</v>
+      </c>
+      <c r="W35" t="n">
+        <v>191</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y35" t="n">
         <v>194</v>
       </c>
-      <c r="I8" t="n">
-        <v>132</v>
-      </c>
-      <c r="J8" t="n">
-        <v>146</v>
-      </c>
-      <c r="K8" t="n">
-        <v>81</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1356</v>
-      </c>
-      <c r="M8" t="n">
-        <v>15</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1371</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1371</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>844</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2215</v>
-      </c>
-      <c r="S8" t="n">
-        <v>61.9</v>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>194</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>61</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>255</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>76.08</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,6 +3626,16 @@
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr"/>
       <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -885,48 +3660,58 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>有效票數A
 A=1+2+...+N</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>無效票數B</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>投票數C
 C=A+B</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>已領未投票數
 D
 D=E-C</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>發出票數E
 E=C+D</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>用餘票數F</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>選舉人數G
 G=E+F</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>投票率H
 H=C÷G</t>
@@ -940,32 +3725,102 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>(1)
-陳貴忠
+張雲德
 中國國民黨</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>(2)
-王長明
+陳美雲
 無黨籍及未經政黨推薦</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>(3)
-周瑞國
+蔡其賀
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(4)
+周子傑
 中國國民黨</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(5)
+謝東龍
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(6)
+蔡春生
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>(7)
+徐鴻義
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>(8)
+李應文
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>(9)
+蔡水游
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>(10)
+陳文慶
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>(11)
+陳玉珍
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>(12)
+王再生
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>(13)
+陳志斌
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -982,6 +3837,16 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -998,101 +3863,1923 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>北竿鄉</t>
+          <t>金沙鎮</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>塘岐村、后沃村、橋仔村</t>
+          <t>汶沙里</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="E6" t="n">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>378</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>932</v>
+        <v>47</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>947</v>
+        <v>61</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>947</v>
+        <v>73</v>
       </c>
       <c r="L6" t="n">
-        <v>400</v>
+        <v>53</v>
       </c>
       <c r="M6" t="n">
-        <v>1347</v>
+        <v>39</v>
       </c>
       <c r="N6" t="n">
-        <v>70.3</v>
+        <v>26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>114</v>
+      </c>
+      <c r="P6" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>723</v>
+      </c>
+      <c r="R6" t="n">
+        <v>18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>741</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>741</v>
+      </c>
+      <c r="V6" t="n">
+        <v>928</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1669</v>
+      </c>
+      <c r="X6" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>芹壁村、坂里村、白沙村</t>
+          <t>汶沙里</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E7" t="n">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
+        <v>47</v>
+      </c>
+      <c r="I7" t="n">
+        <v>63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>85</v>
+      </c>
+      <c r="L7" t="n">
+        <v>39</v>
+      </c>
+      <c r="M7" t="n">
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>26</v>
+      </c>
+      <c r="O7" t="n">
+        <v>45</v>
+      </c>
+      <c r="P7" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>668</v>
+      </c>
+      <c r="R7" t="n">
+        <v>15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>683</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>683</v>
+      </c>
+      <c r="V7" t="n">
+        <v>725</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1408</v>
+      </c>
+      <c r="X7" t="n">
+        <v>48.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>汶沙里</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>110</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>57</v>
+      </c>
+      <c r="I8" t="n">
+        <v>63</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19</v>
+      </c>
+      <c r="K8" t="n">
+        <v>76</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32</v>
+      </c>
+      <c r="M8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>43</v>
+      </c>
+      <c r="P8" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>568</v>
+      </c>
+      <c r="R8" t="n">
+        <v>27</v>
+      </c>
+      <c r="S8" t="n">
+        <v>595</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>595</v>
+      </c>
+      <c r="V8" t="n">
+        <v>821</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1416</v>
+      </c>
+      <c r="X8" t="n">
+        <v>42.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>三山里</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>95</v>
+      </c>
+      <c r="E9" t="n">
+        <v>52</v>
+      </c>
+      <c r="F9" t="n">
         <v>8</v>
       </c>
-      <c r="I7" t="n">
-        <v>386</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>386</v>
-      </c>
-      <c r="L7" t="n">
-        <v>146</v>
-      </c>
-      <c r="M7" t="n">
-        <v>532</v>
-      </c>
-      <c r="N7" t="n">
-        <v>72.56</v>
+      <c r="G9" t="n">
+        <v>44</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34</v>
+      </c>
+      <c r="I9" t="n">
+        <v>72</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23</v>
+      </c>
+      <c r="K9" t="n">
+        <v>123</v>
+      </c>
+      <c r="L9" t="n">
+        <v>34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>41</v>
+      </c>
+      <c r="N9" t="n">
+        <v>49</v>
+      </c>
+      <c r="O9" t="n">
+        <v>51</v>
+      </c>
+      <c r="P9" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>669</v>
+      </c>
+      <c r="R9" t="n">
+        <v>27</v>
+      </c>
+      <c r="S9" t="n">
+        <v>696</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>696</v>
+      </c>
+      <c r="V9" t="n">
+        <v>968</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1664</v>
+      </c>
+      <c r="X9" t="n">
+        <v>41.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>大洋里</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>26</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>53</v>
+      </c>
+      <c r="H10" t="n">
+        <v>37</v>
+      </c>
+      <c r="I10" t="n">
+        <v>104</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>41</v>
+      </c>
+      <c r="L10" t="n">
+        <v>17</v>
+      </c>
+      <c r="M10" t="n">
+        <v>15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>411</v>
+      </c>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="n">
+        <v>431</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>431</v>
+      </c>
+      <c r="V10" t="n">
+        <v>579</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1010</v>
+      </c>
+      <c r="X10" t="n">
+        <v>42.67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>光前里</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>31</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>41</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23</v>
+      </c>
+      <c r="I11" t="n">
+        <v>157</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>46</v>
+      </c>
+      <c r="L11" t="n">
+        <v>34</v>
+      </c>
+      <c r="M11" t="n">
+        <v>34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>34</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>481</v>
+      </c>
+      <c r="R11" t="n">
+        <v>11</v>
+      </c>
+      <c r="S11" t="n">
+        <v>492</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>492</v>
+      </c>
+      <c r="V11" t="n">
+        <v>538</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1030</v>
+      </c>
+      <c r="X11" t="n">
+        <v>47.77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>光前里</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>36</v>
+      </c>
+      <c r="I12" t="n">
+        <v>84</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
+      <c r="K12" t="n">
+        <v>47</v>
+      </c>
+      <c r="L12" t="n">
+        <v>31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>29</v>
+      </c>
+      <c r="N12" t="n">
+        <v>56</v>
+      </c>
+      <c r="O12" t="n">
+        <v>20</v>
+      </c>
+      <c r="P12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>395</v>
+      </c>
+      <c r="R12" t="n">
+        <v>17</v>
+      </c>
+      <c r="S12" t="n">
+        <v>412</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>412</v>
+      </c>
+      <c r="V12" t="n">
+        <v>559</v>
+      </c>
+      <c r="W12" t="n">
+        <v>971</v>
+      </c>
+      <c r="X12" t="n">
+        <v>42.43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>何斗里</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>64</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>47</v>
+      </c>
+      <c r="H13" t="n">
+        <v>54</v>
+      </c>
+      <c r="I13" t="n">
+        <v>141</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="n">
+        <v>74</v>
+      </c>
+      <c r="L13" t="n">
+        <v>89</v>
+      </c>
+      <c r="M13" t="n">
+        <v>74</v>
+      </c>
+      <c r="N13" t="n">
+        <v>70</v>
+      </c>
+      <c r="O13" t="n">
+        <v>44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>765</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17</v>
+      </c>
+      <c r="S13" t="n">
+        <v>782</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>782</v>
+      </c>
+      <c r="V13" t="n">
+        <v>938</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1720</v>
+      </c>
+      <c r="X13" t="n">
+        <v>45.47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>西園里</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>54</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>38</v>
+      </c>
+      <c r="H14" t="n">
+        <v>63</v>
+      </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>17</v>
+      </c>
+      <c r="K14" t="n">
+        <v>57</v>
+      </c>
+      <c r="L14" t="n">
+        <v>46</v>
+      </c>
+      <c r="M14" t="n">
+        <v>45</v>
+      </c>
+      <c r="N14" t="n">
+        <v>38</v>
+      </c>
+      <c r="O14" t="n">
+        <v>28</v>
+      </c>
+      <c r="P14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>537</v>
+      </c>
+      <c r="R14" t="n">
+        <v>15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>552</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>552</v>
+      </c>
+      <c r="V14" t="n">
+        <v>759</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1311</v>
+      </c>
+      <c r="X14" t="n">
+        <v>42.11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>官嶼里</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>49</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29</v>
+      </c>
+      <c r="H15" t="n">
+        <v>53</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" t="n">
+        <v>237</v>
+      </c>
+      <c r="L15" t="n">
+        <v>44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>46</v>
+      </c>
+      <c r="N15" t="n">
+        <v>61</v>
+      </c>
+      <c r="O15" t="n">
+        <v>34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>654</v>
+      </c>
+      <c r="R15" t="n">
+        <v>35</v>
+      </c>
+      <c r="S15" t="n">
+        <v>689</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>689</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1172</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1861</v>
+      </c>
+      <c r="X15" t="n">
+        <v>37.02</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>浦山里</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>26</v>
+      </c>
+      <c r="E16" t="n">
+        <v>25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>51</v>
+      </c>
+      <c r="H16" t="n">
+        <v>47</v>
+      </c>
+      <c r="I16" t="n">
+        <v>137</v>
+      </c>
+      <c r="J16" t="n">
+        <v>30</v>
+      </c>
+      <c r="K16" t="n">
+        <v>26</v>
+      </c>
+      <c r="L16" t="n">
+        <v>32</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>78</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>499</v>
+      </c>
+      <c r="R16" t="n">
+        <v>21</v>
+      </c>
+      <c r="S16" t="n">
+        <v>520</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>520</v>
+      </c>
+      <c r="V16" t="n">
+        <v>550</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1070</v>
+      </c>
+      <c r="X16" t="n">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>浦山里</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>21</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>89</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>54</v>
+      </c>
+      <c r="L17" t="n">
+        <v>29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>355</v>
+      </c>
+      <c r="R17" t="n">
+        <v>22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>377</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>377</v>
+      </c>
+      <c r="V17" t="n">
+        <v>560</v>
+      </c>
+      <c r="W17" t="n">
+        <v>937</v>
+      </c>
+      <c r="X17" t="n">
+        <v>40.23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>金湖鎮</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>新市里</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>67</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>168</v>
+      </c>
+      <c r="H18" t="n">
+        <v>72</v>
+      </c>
+      <c r="I18" t="n">
+        <v>95</v>
+      </c>
+      <c r="J18" t="n">
+        <v>51</v>
+      </c>
+      <c r="K18" t="n">
+        <v>75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>53</v>
+      </c>
+      <c r="M18" t="n">
+        <v>36</v>
+      </c>
+      <c r="N18" t="n">
+        <v>48</v>
+      </c>
+      <c r="O18" t="n">
+        <v>49</v>
+      </c>
+      <c r="P18" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>852</v>
+      </c>
+      <c r="R18" t="n">
+        <v>31</v>
+      </c>
+      <c r="S18" t="n">
+        <v>883</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>883</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1055</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1938</v>
+      </c>
+      <c r="X18" t="n">
+        <v>45.56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>新市里</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>79</v>
+      </c>
+      <c r="E19" t="n">
+        <v>98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>158</v>
+      </c>
+      <c r="H19" t="n">
+        <v>98</v>
+      </c>
+      <c r="I19" t="n">
+        <v>96</v>
+      </c>
+      <c r="J19" t="n">
+        <v>57</v>
+      </c>
+      <c r="K19" t="n">
+        <v>78</v>
+      </c>
+      <c r="L19" t="n">
+        <v>47</v>
+      </c>
+      <c r="M19" t="n">
+        <v>33</v>
+      </c>
+      <c r="N19" t="n">
+        <v>31</v>
+      </c>
+      <c r="O19" t="n">
+        <v>45</v>
+      </c>
+      <c r="P19" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>893</v>
+      </c>
+      <c r="R19" t="n">
+        <v>32</v>
+      </c>
+      <c r="S19" t="n">
+        <v>925</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>925</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1021</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1946</v>
+      </c>
+      <c r="X19" t="n">
+        <v>47.53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>山外里</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>87</v>
+      </c>
+      <c r="E20" t="n">
+        <v>42</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>211</v>
+      </c>
+      <c r="H20" t="n">
+        <v>44</v>
+      </c>
+      <c r="I20" t="n">
+        <v>59</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23</v>
+      </c>
+      <c r="K20" t="n">
+        <v>54</v>
+      </c>
+      <c r="L20" t="n">
+        <v>35</v>
+      </c>
+      <c r="M20" t="n">
+        <v>15</v>
+      </c>
+      <c r="N20" t="n">
+        <v>50</v>
+      </c>
+      <c r="O20" t="n">
+        <v>24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>682</v>
+      </c>
+      <c r="R20" t="n">
+        <v>25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>707</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>707</v>
+      </c>
+      <c r="V20" t="n">
+        <v>935</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1642</v>
+      </c>
+      <c r="X20" t="n">
+        <v>43.06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>山外里</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>70</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>220</v>
+      </c>
+      <c r="H21" t="n">
+        <v>42</v>
+      </c>
+      <c r="I21" t="n">
+        <v>38</v>
+      </c>
+      <c r="J21" t="n">
+        <v>26</v>
+      </c>
+      <c r="K21" t="n">
+        <v>39</v>
+      </c>
+      <c r="L21" t="n">
+        <v>32</v>
+      </c>
+      <c r="M21" t="n">
+        <v>16</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39</v>
+      </c>
+      <c r="O21" t="n">
+        <v>22</v>
+      </c>
+      <c r="P21" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>617</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14</v>
+      </c>
+      <c r="S21" t="n">
+        <v>631</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>631</v>
+      </c>
+      <c r="V21" t="n">
+        <v>750</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1381</v>
+      </c>
+      <c r="X21" t="n">
+        <v>45.69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>正義里</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>48</v>
+      </c>
+      <c r="E22" t="n">
+        <v>43</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>121</v>
+      </c>
+      <c r="H22" t="n">
+        <v>148</v>
+      </c>
+      <c r="I22" t="n">
+        <v>118</v>
+      </c>
+      <c r="J22" t="n">
+        <v>226</v>
+      </c>
+      <c r="K22" t="n">
+        <v>26</v>
+      </c>
+      <c r="L22" t="n">
+        <v>59</v>
+      </c>
+      <c r="M22" t="n">
+        <v>26</v>
+      </c>
+      <c r="N22" t="n">
+        <v>41</v>
+      </c>
+      <c r="O22" t="n">
+        <v>25</v>
+      </c>
+      <c r="P22" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>943</v>
+      </c>
+      <c r="R22" t="n">
+        <v>36</v>
+      </c>
+      <c r="S22" t="n">
+        <v>979</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>979</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1166</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2145</v>
+      </c>
+      <c r="X22" t="n">
+        <v>45.64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>料羅里</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>34</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>42</v>
+      </c>
+      <c r="H23" t="n">
+        <v>286</v>
+      </c>
+      <c r="I23" t="n">
+        <v>73</v>
+      </c>
+      <c r="J23" t="n">
+        <v>27</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14</v>
+      </c>
+      <c r="N23" t="n">
+        <v>25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>51</v>
+      </c>
+      <c r="P23" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>660</v>
+      </c>
+      <c r="R23" t="n">
+        <v>25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>685</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>685</v>
+      </c>
+      <c r="V23" t="n">
+        <v>928</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1613</v>
+      </c>
+      <c r="X23" t="n">
+        <v>42.47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>瓊林里</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>38</v>
+      </c>
+      <c r="E24" t="n">
+        <v>21</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28</v>
+      </c>
+      <c r="G24" t="n">
+        <v>69</v>
+      </c>
+      <c r="H24" t="n">
+        <v>47</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12</v>
+      </c>
+      <c r="N24" t="n">
+        <v>25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>579</v>
+      </c>
+      <c r="R24" t="n">
+        <v>14</v>
+      </c>
+      <c r="S24" t="n">
+        <v>593</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>593</v>
+      </c>
+      <c r="V24" t="n">
+        <v>763</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1356</v>
+      </c>
+      <c r="X24" t="n">
+        <v>43.73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>瓊林里</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>44</v>
+      </c>
+      <c r="E25" t="n">
+        <v>49</v>
+      </c>
+      <c r="F25" t="n">
+        <v>25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>69</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31</v>
+      </c>
+      <c r="I25" t="n">
+        <v>65</v>
+      </c>
+      <c r="J25" t="n">
+        <v>30</v>
+      </c>
+      <c r="K25" t="n">
+        <v>40</v>
+      </c>
+      <c r="L25" t="n">
+        <v>141</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9</v>
+      </c>
+      <c r="N25" t="n">
+        <v>23</v>
+      </c>
+      <c r="O25" t="n">
+        <v>27</v>
+      </c>
+      <c r="P25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>574</v>
+      </c>
+      <c r="R25" t="n">
+        <v>31</v>
+      </c>
+      <c r="S25" t="n">
+        <v>605</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>605</v>
+      </c>
+      <c r="V25" t="n">
+        <v>725</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1330</v>
+      </c>
+      <c r="X25" t="n">
+        <v>45.49</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>新湖里</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>76</v>
+      </c>
+      <c r="E26" t="n">
+        <v>67</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" t="n">
+        <v>102</v>
+      </c>
+      <c r="H26" t="n">
+        <v>111</v>
+      </c>
+      <c r="I26" t="n">
+        <v>115</v>
+      </c>
+      <c r="J26" t="n">
+        <v>41</v>
+      </c>
+      <c r="K26" t="n">
+        <v>86</v>
+      </c>
+      <c r="L26" t="n">
+        <v>36</v>
+      </c>
+      <c r="M26" t="n">
+        <v>59</v>
+      </c>
+      <c r="N26" t="n">
+        <v>77</v>
+      </c>
+      <c r="O26" t="n">
+        <v>40</v>
+      </c>
+      <c r="P26" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>898</v>
+      </c>
+      <c r="R26" t="n">
+        <v>16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>914</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>914</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1318</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2232</v>
+      </c>
+      <c r="X26" t="n">
+        <v>40.95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新湖里</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>92</v>
+      </c>
+      <c r="E27" t="n">
+        <v>67</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>63</v>
+      </c>
+      <c r="H27" t="n">
+        <v>89</v>
+      </c>
+      <c r="I27" t="n">
+        <v>74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>61</v>
+      </c>
+      <c r="K27" t="n">
+        <v>54</v>
+      </c>
+      <c r="L27" t="n">
+        <v>86</v>
+      </c>
+      <c r="M27" t="n">
+        <v>28</v>
+      </c>
+      <c r="N27" t="n">
+        <v>43</v>
+      </c>
+      <c r="O27" t="n">
+        <v>49</v>
+      </c>
+      <c r="P27" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>776</v>
+      </c>
+      <c r="R27" t="n">
+        <v>26</v>
+      </c>
+      <c r="S27" t="n">
+        <v>802</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>802</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1037</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1839</v>
+      </c>
+      <c r="X27" t="n">
+        <v>43.61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>新湖里</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>106</v>
+      </c>
+      <c r="E28" t="n">
+        <v>55</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="n">
+        <v>89</v>
+      </c>
+      <c r="H28" t="n">
+        <v>110</v>
+      </c>
+      <c r="I28" t="n">
+        <v>88</v>
+      </c>
+      <c r="J28" t="n">
+        <v>41</v>
+      </c>
+      <c r="K28" t="n">
+        <v>77</v>
+      </c>
+      <c r="L28" t="n">
+        <v>68</v>
+      </c>
+      <c r="M28" t="n">
+        <v>38</v>
+      </c>
+      <c r="N28" t="n">
+        <v>41</v>
+      </c>
+      <c r="O28" t="n">
+        <v>46</v>
+      </c>
+      <c r="P28" t="n">
+        <v>213</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>980</v>
+      </c>
+      <c r="R28" t="n">
+        <v>36</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1016</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1016</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1082</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2098</v>
+      </c>
+      <c r="X28" t="n">
+        <v>48.43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>溪湖里</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>61</v>
+      </c>
+      <c r="E29" t="n">
+        <v>46</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>84</v>
+      </c>
+      <c r="H29" t="n">
+        <v>36</v>
+      </c>
+      <c r="I29" t="n">
+        <v>103</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20</v>
+      </c>
+      <c r="L29" t="n">
+        <v>27</v>
+      </c>
+      <c r="M29" t="n">
+        <v>20</v>
+      </c>
+      <c r="N29" t="n">
+        <v>26</v>
+      </c>
+      <c r="O29" t="n">
+        <v>39</v>
+      </c>
+      <c r="P29" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>549</v>
+      </c>
+      <c r="R29" t="n">
+        <v>16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>565</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>565</v>
+      </c>
+      <c r="V29" t="n">
+        <v>678</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1243</v>
+      </c>
+      <c r="X29" t="n">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>蓮庵里</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>36</v>
+      </c>
+      <c r="E30" t="n">
+        <v>36</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12</v>
+      </c>
+      <c r="G30" t="n">
+        <v>59</v>
+      </c>
+      <c r="H30" t="n">
+        <v>125</v>
+      </c>
+      <c r="I30" t="n">
+        <v>88</v>
+      </c>
+      <c r="J30" t="n">
+        <v>21</v>
+      </c>
+      <c r="K30" t="n">
+        <v>24</v>
+      </c>
+      <c r="L30" t="n">
+        <v>52</v>
+      </c>
+      <c r="M30" t="n">
+        <v>16</v>
+      </c>
+      <c r="N30" t="n">
+        <v>38</v>
+      </c>
+      <c r="O30" t="n">
+        <v>24</v>
+      </c>
+      <c r="P30" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>580</v>
+      </c>
+      <c r="R30" t="n">
+        <v>33</v>
+      </c>
+      <c r="S30" t="n">
+        <v>613</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>613</v>
+      </c>
+      <c r="V30" t="n">
+        <v>789</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1402</v>
+      </c>
+      <c r="X30" t="n">
+        <v>43.72</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +5793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,6 +5819,9 @@
       <c r="K1" t="inlineStr"/>
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1155,48 +5845,51 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>有效票數A
 A=1+2+...+N</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>無效票數B</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>投票數C
 C=A+B</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>已領未投票數
 D
 D=E-C</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>發出票數E
 E=C+D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>用餘票數F</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>選舉人數G
 G=E+F</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>投票率H
 H=C÷G</t>
@@ -1210,25 +5903,46 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>(1)
-柯玉官
+洪麗萍
 中國國民黨</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>(2)
-陳貽斌
+洪輝榮
+無黨籍及未經政黨推薦</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3)
+林金量
 中國國民黨</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(4)
+呂俊龍
+中國國民黨</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(5)
+洪鴻斌
+中國國民黨</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -1244,6 +5958,9 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -1259,307 +5976,324 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>莒光鄉</t>
+          <t>烈嶼鄉</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>青帆村、田沃村、西坵村</t>
+          <t>上岐村</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="E6" t="n">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>404</v>
+        <v>636</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1085</v>
       </c>
       <c r="J6" t="n">
-        <v>404</v>
+        <v>16</v>
       </c>
       <c r="K6" t="n">
-        <v>218</v>
+        <v>1101</v>
       </c>
       <c r="L6" t="n">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>64.95</v>
+        <v>1101</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1318</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2419</v>
+      </c>
+      <c r="P6" t="n">
+        <v>45.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>大坪村、福正村</t>
+          <t>上林村</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>377</v>
+        <v>122</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="J7" t="n">
-        <v>379</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>210</v>
+        <v>511</v>
       </c>
       <c r="L7" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>64.34999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2014年金門縣縣市區域議員選舉第04選舉區候選人在各投開票所得票數一覽表</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr"/>
-      <c r="J1" t="inlineStr"/>
-      <c r="K1" t="inlineStr"/>
-      <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>行政區別</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>村里別</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>投開票所別</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>各組候選人得票情形</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>有效票數A
-A=1+2+...+N</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>無效票數B</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>投票數C
-C=A+B</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>已領未投票數
-D
-D=E-C</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>發出票數E
-E=C+D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>用餘票數F</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>選舉人數G
-G=E+F</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>投票率H
-H=C÷G</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(1)
-張永江
-無黨籍及未經政黨推薦</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(2)
-馮印才
-無黨籍及未經政黨推薦</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>東引鄉</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>中柳村、樂華村</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>490</v>
-      </c>
-      <c r="E6" t="n">
-        <v>319</v>
-      </c>
-      <c r="F6" t="n">
-        <v>809</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>813</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>813</v>
-      </c>
-      <c r="K6" t="n">
-        <v>183</v>
-      </c>
-      <c r="L6" t="n">
+        <v>511</v>
+      </c>
+      <c r="N7" t="n">
+        <v>718</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1229</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>西口村</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>213</v>
+      </c>
+      <c r="E8" t="n">
+        <v>72</v>
+      </c>
+      <c r="F8" t="n">
+        <v>196</v>
+      </c>
+      <c r="G8" t="n">
+        <v>220</v>
+      </c>
+      <c r="H8" t="n">
+        <v>262</v>
+      </c>
+      <c r="I8" t="n">
+        <v>963</v>
+      </c>
+      <c r="J8" t="n">
+        <v>33</v>
+      </c>
+      <c r="K8" t="n">
         <v>996</v>
       </c>
-      <c r="M6" t="n">
-        <v>81.63</v>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>996</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1093</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2089</v>
+      </c>
+      <c r="P8" t="n">
+        <v>47.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>林湖村</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>181</v>
+      </c>
+      <c r="E9" t="n">
+        <v>53</v>
+      </c>
+      <c r="F9" t="n">
+        <v>197</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34</v>
+      </c>
+      <c r="H9" t="n">
+        <v>146</v>
+      </c>
+      <c r="I9" t="n">
+        <v>611</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>626</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>626</v>
+      </c>
+      <c r="N9" t="n">
+        <v>677</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1303</v>
+      </c>
+      <c r="P9" t="n">
+        <v>48.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>林湖村</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>173</v>
+      </c>
+      <c r="E10" t="n">
+        <v>56</v>
+      </c>
+      <c r="F10" t="n">
+        <v>172</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31</v>
+      </c>
+      <c r="H10" t="n">
+        <v>233</v>
+      </c>
+      <c r="I10" t="n">
+        <v>665</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" t="n">
+        <v>684</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>684</v>
+      </c>
+      <c r="N10" t="n">
+        <v>912</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1596</v>
+      </c>
+      <c r="P10" t="n">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>黃埔村</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>119</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>127</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>269</v>
+      </c>
+      <c r="I11" t="n">
+        <v>580</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17</v>
+      </c>
+      <c r="K11" t="n">
+        <v>597</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>597</v>
+      </c>
+      <c r="N11" t="n">
+        <v>731</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1328</v>
+      </c>
+      <c r="P11" t="n">
+        <v>44.95</v>
       </c>
     </row>
   </sheetData>
